--- a/FINKARO ANALYTICS/REAL POWER BI DEVLOPER FULL COURSE/Module 10 B. Excel Practice Advanced Level Excel.xlsx
+++ b/FINKARO ANALYTICS/REAL POWER BI DEVLOPER FULL COURSE/Module 10 B. Excel Practice Advanced Level Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Decimal Point Analytics\BI Team\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Power-BI\FINKARO ANALYTICS\REAL POWER BI DEVLOPER FULL COURSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011139D2-D605-44DA-BB4B-0358D7642CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32922E1-E6DB-4749-8079-04B0E87BFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA47DA72-3439-45DC-B552-CBDF794C11FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA47DA72-3439-45DC-B552-CBDF794C11FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced Level" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Unique" sheetId="8" r:id="rId7"/>
     <sheet name="Upper+Lower+Proper+Len" sheetId="9" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'FILTER + SHORT'!$A$1:$Q$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,17 +33,42 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="316">
   <si>
     <t>Advance Level</t>
   </si>
@@ -979,6 +1007,15 @@
   </si>
   <si>
     <t>Len</t>
+  </si>
+  <si>
+    <t>CTRL + SHIFT+L</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
   </si>
 </sst>
 </file>
@@ -987,9 +1024,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,8 +1069,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,6 +1107,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,21 +1153,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="1" tint="0.499984740745262"/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF808080"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1105,22 +1183,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1140,9 +1235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1180,7 +1275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1286,7 +1381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1428,7 +1523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1438,81 +1533,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440313D5-0B94-4C8B-9BFC-3B7D36A519E0}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1526,419 +1621,434 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0AC147-4542-4EE9-BB23-1245EB4A98A1}">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="14">
         <v>60270</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="15">
         <v>0.27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="14">
         <v>39627</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="15">
         <v>0.25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="14">
         <v>29726</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="15">
         <v>0.25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="14">
         <v>93668</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="15">
         <v>0.25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>134000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="15">
         <v>0.25</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="14">
         <v>34808</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="15">
         <v>0.24</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="14">
         <v>135000</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="15">
         <v>0.24</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="14">
         <v>45000</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="15">
         <v>0.23</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="14">
         <v>89500</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="15">
         <v>0.23</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="14">
         <v>21971</v>
       </c>
-      <c r="G12" t="s">
+      <c r="D12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="15">
         <v>0.21</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>80000</v>
       </c>
-      <c r="G13" t="s">
+      <c r="D13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="15">
         <v>0.2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="14">
         <v>45117</v>
       </c>
-      <c r="G14" t="s">
+      <c r="D14" s="12"/>
+      <c r="G14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="15">
         <v>0.19</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="14">
         <v>50545</v>
       </c>
-      <c r="G15" t="s">
+      <c r="D15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="15">
         <v>0.18</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="14">
         <v>140000</v>
       </c>
-      <c r="G16" t="s">
+      <c r="D16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="15">
         <v>0.18</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="14">
         <v>110000</v>
       </c>
-      <c r="G17" t="s">
+      <c r="D17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="15">
         <v>0.17</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="14">
         <v>68357</v>
       </c>
-      <c r="G18" t="s">
+      <c r="D18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="14">
         <v>51800</v>
       </c>
-      <c r="G19" t="s">
+      <c r="D19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="14">
         <v>97000</v>
       </c>
-      <c r="G20" t="s">
+      <c r="D20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="15">
         <v>0.1</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G21" t="s">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="15">
         <v>0.1</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G22" t="s">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="15">
         <v>0.09</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G23" t="s">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="15">
         <v>0.09</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G24" t="s">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="15">
         <v>0.08</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G25" t="s">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="15">
         <v>0.06</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G26" t="s">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="15">
         <v>0.06</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G27" t="s">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="15">
         <v>0.06</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1949,69 +2059,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E290B64-B933-4F62-A464-7915B3547879}">
-  <dimension ref="B4:C9"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>SUBSTITUTE(B3,"-","@")</f>
+        <v>Gary@Miller</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>SUBSTITUTE(B3,"-"," # ",1)</f>
+        <v>Gary # Miller</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" ref="C4:C7" si="0">SUBSTITUTE(B4,"-","@")</f>
+        <v>James@Willard</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" ref="D4:D7" si="1">SUBSTITUTE(B4,"-"," # ",1)</f>
+        <v>James # Willard</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>SUBSTITUTE(B5,"-","@")</f>
-        <v>Gary@Miller</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Richard@Elliot</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Richard # Elliot</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" ref="C6:C9" si="0">SUBSTITUTE(B6,"-","@")</f>
-        <v>James@Willard</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Robert@Spear</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Robert # Spear</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Richard@Elliot</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Robert@Spear</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
         <v>Roger@Mun</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Roger # Mun</v>
       </c>
     </row>
   </sheetData>
@@ -2022,5475 +2156,5511 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE4706D-E2FC-4B65-8361-9201532C5717}">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:B40"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="R1" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>41930</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>686800706</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>41943</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>8446</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>437.2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="7">
         <v>263.33</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="7">
         <v>3692591.2</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="7">
         <v>2224085.1800000002</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="7">
         <v>1468506.02</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="7">
         <v>2014</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>40854</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>185941302</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>40885</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <v>3018</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>154.06</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <v>90.93</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="7">
         <v>464953.08</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="7">
         <v>274426.74</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="7">
         <v>190526.34</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="7">
         <v>2011</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>42674</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>246222341</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>42713</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>1517</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>255.28</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>159.41999999999999</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>387259.76</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="7">
         <v>241840.14</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="7">
         <v>145419.62</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="7">
         <v>2016</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>40278</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>161442649</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>40310</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>3322</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>205.7</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <v>117.11</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="7">
         <v>683335.4</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="7">
         <v>389039.42</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="7">
         <v>294295.98</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>2010</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>40771</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>645713555</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>40786</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>9845</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>9.33</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <v>6.92</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="7">
         <v>91853.85</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="7">
         <v>68127.399999999994</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="7">
         <v>23726.45</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="7">
         <v>2011</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>41967</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>683458888</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>42001</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>9528</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>205.7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <v>117.11</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="7">
         <v>1959909.6</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="7">
         <v>1115824.08</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="7">
         <v>844085.52</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="7">
         <v>2014</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>42067</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>679414975</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>42111</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>2844</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>205.7</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>117.11</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>585010.80000000005</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="7">
         <v>333060.84000000003</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="7">
         <v>251949.96</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="7">
         <v>2015</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>41046</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>208630645</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>41088</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>7299</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>109.28</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="7">
         <v>797634.72</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="7">
         <v>261596.16</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="7">
         <v>536038.56000000006</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>2012</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>42033</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>266467225</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>42070</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>2428</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>154.06</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <v>90.93</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="7">
         <v>374057.68</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="7">
         <v>220778.04</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="7">
         <v>153279.64000000001</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="7">
         <v>2015</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>41632</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>118598544</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>41658</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <v>4800</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="7">
         <v>154.06</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <v>90.93</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="7">
         <v>739488</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="7">
         <v>436464</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="7">
         <v>303024</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <v>2013</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>42367</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>451010930</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>42388</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="7">
         <v>3012</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="7">
         <v>109.28</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="7">
         <v>329151.35999999999</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="7">
         <v>107950.08</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="7">
         <v>221201.28</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="7">
         <v>2015</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>40236</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>220003211</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>40255</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <v>2694</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <v>97.44</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="7">
         <v>411050.52</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="7">
         <v>262503.36</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="7">
         <v>148547.16</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="7">
         <v>2010</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>42691</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>702186715</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>42726</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="7">
         <v>1508</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="7">
         <v>668.27</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <v>502.54</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="7">
         <v>1007751.16</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="7">
         <v>757830.32</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="7">
         <v>249920.84</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="7">
         <v>2016</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>42358</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>544485270</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>42374</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="7">
         <v>4146</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="7">
         <v>437.2</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="7">
         <v>263.33</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="7">
         <v>1812631.2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="7">
         <v>1091766.18</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="7">
         <v>720865.02</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="7">
         <v>2015</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>40551</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>714135205</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>40580</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>7332</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="7">
         <v>9.33</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="7">
         <v>6.92</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="7">
         <v>68407.56</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="7">
         <v>50737.440000000002</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="7">
         <v>17670.12</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="7">
         <v>2011</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>40357</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>448685348</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>40381</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>4820</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="7">
         <v>109.28</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="7">
         <v>526729.6</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="7">
         <v>172748.79999999999</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="7">
         <v>353980.8</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="7">
         <v>2010</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>42485</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>405997025</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>42502</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>2397</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>651.21</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="7">
         <v>524.96</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="7">
         <v>1560950.37</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="7">
         <v>1258329.1200000001</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="7">
         <v>302621.25</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="7">
         <v>2016</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>41117</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>414244067</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>41128</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>2880</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="7">
         <v>47.45</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="7">
         <v>31.79</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="7">
         <v>136656</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="7">
         <v>91555.199999999997</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="7">
         <v>45100.800000000003</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="7">
         <v>2012</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>41890</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>821912801</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>41915</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>1117</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="7">
         <v>109.28</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="7">
         <v>122065.76</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="7">
         <v>40033.279999999999</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="7">
         <v>82032.479999999996</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="7">
         <v>2014</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>41148</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>247802054</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>41160</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>8989</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="7">
         <v>668.27</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="7">
         <v>502.54</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="7">
         <v>6007079.0300000003</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="7">
         <v>4517332.0599999996</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="7">
         <v>1489746.97</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="7">
         <v>2012</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>41155</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>531023156</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>41197</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="7">
         <v>407</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="7">
         <v>97.44</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="7">
         <v>62100.06</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="7">
         <v>39658.080000000002</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="7">
         <v>22441.98</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="7">
         <v>2012</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>40417</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>880999934</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>40437</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="7">
         <v>6313</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="7">
         <v>109.28</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="7">
         <v>689884.64</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="7">
         <v>226257.92000000001</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="7">
         <v>463626.72</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="7">
         <v>2010</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>40594</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>127468717</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>40611</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>9681</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="7">
         <v>81.73</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="7">
         <v>56.67</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="7">
         <v>791228.13</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="7">
         <v>548622.27</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="7">
         <v>242605.86</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="7">
         <v>2011</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>42350</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>770478332</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>42393</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="7">
         <v>515</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <v>109.28</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="7">
         <v>56279.199999999997</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="7">
         <v>18457.599999999999</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="7">
         <v>37821.599999999999</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="7">
         <v>2015</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>41210</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>430390107</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>41226</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="7">
         <v>852</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="7">
         <v>205.7</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="7">
         <v>117.11</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="7">
         <v>175256.4</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="7">
         <v>99777.72</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="7">
         <v>75478.679999999993</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="7">
         <v>2012</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>42765</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <v>397877871</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>42814</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="7">
         <v>9759</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="7">
         <v>47.45</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="7">
         <v>31.79</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="7">
         <v>463064.55</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="7">
         <v>310238.61</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="7">
         <v>152825.94</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="7">
         <v>2017</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>41934</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <v>683927953</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>41947</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="7">
         <v>8334</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="7">
         <v>47.45</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="7">
         <v>31.79</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="7">
         <v>395448.3</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="7">
         <v>264937.86</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="7">
         <v>130510.44</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="7">
         <v>2014</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>40939</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <v>469839179</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>40961</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="7">
         <v>4709</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="7">
         <v>9.33</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="7">
         <v>6.92</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="7">
         <v>43934.97</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="7">
         <v>32586.28</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="7">
         <v>11348.69</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="7">
         <v>2012</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>42389</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="7">
         <v>357222878</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>42438</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="7">
         <v>9043</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="7">
         <v>421.89</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="7">
         <v>364.69</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="7">
         <v>3815151.27</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="7">
         <v>3297891.67</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="7">
         <v>517259.6</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="7">
         <v>2016</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>42370</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <v>118002879</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>42376</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="7">
         <v>8529</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="7">
         <v>81.73</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="7">
         <v>56.67</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="7">
         <v>697075.17</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="7">
         <v>483338.43</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="7">
         <v>213736.74</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="7">
         <v>2016</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>42887</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <v>944415509</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>42909</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="7">
         <v>2391</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="7">
         <v>47.45</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="7">
         <v>31.79</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="7">
         <v>113452.95</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="7">
         <v>76009.89</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="7">
         <v>37443.06</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="7">
         <v>2017</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>42185</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="7">
         <v>499009597</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>42194</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="7">
         <v>6884</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="7">
         <v>651.21</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="7">
         <v>524.96</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="7">
         <v>4482929.6399999997</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="7">
         <v>3613824.64</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="7">
         <v>869105</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="7">
         <v>2015</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>41667</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>564646470</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>41714</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="7">
         <v>293</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="7">
         <v>9.33</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="7">
         <v>6.92</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="7">
         <v>2733.69</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="7">
         <v>2027.56</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="7">
         <v>706.13</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="7">
         <v>2014</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>41737</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="7">
         <v>294499957</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>41737</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="7">
         <v>7937</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="7">
         <v>255.28</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="7">
         <v>159.41999999999999</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="7">
         <v>2026157.36</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="7">
         <v>1265316.54</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="7">
         <v>760840.82</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="7">
         <v>2014</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>40425</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>262056386</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>40475</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="7">
         <v>7163</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="7">
         <v>47.45</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="7">
         <v>31.79</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="7">
         <v>339884.35</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="7">
         <v>227711.77</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="7">
         <v>112172.58</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="7">
         <v>2010</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>40300</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>211114585</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>40312</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="7">
         <v>2352</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="7">
         <v>651.21</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="7">
         <v>524.96</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="7">
         <v>1531645.92</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="7">
         <v>1234705.9199999999</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="7">
         <v>296940</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="7">
         <v>2010</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>41550</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="7">
         <v>405785882</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <v>41569</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="7">
         <v>9915</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="7">
         <v>651.21</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="7">
         <v>524.96</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="7">
         <v>6456747.1500000004</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="7">
         <v>5204978.4000000004</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="7">
         <v>1251768.75</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="7">
         <v>2013</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>40608</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <v>280494105</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>40647</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="7">
         <v>3294</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="7">
         <v>154.06</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="7">
         <v>90.93</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="7">
         <v>507473.64</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="7">
         <v>299523.42</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="7">
         <v>207950.22</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="7">
         <v>2011</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>42589</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="7">
         <v>689975583</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>42594</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="7">
         <v>7963</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="7">
         <v>255.28</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="7">
         <v>159.41999999999999</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="7">
         <v>2032794.64</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="7">
         <v>1269461.46</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="7">
         <v>763333.18</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="7">
         <v>2016</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>40554</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="7">
         <v>759279143</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <v>40592</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="7">
         <v>6426</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="7">
         <v>651.21</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="7">
         <v>524.96</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="7">
         <v>4184675.46</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="7">
         <v>3373392.96</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="7">
         <v>811282.5</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="7">
         <v>2011</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>41780</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="7">
         <v>133766114</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <v>41802</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="7">
         <v>3221</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="7">
         <v>651.21</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="7">
         <v>524.96</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="7">
         <v>2097547.41</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="7">
         <v>1690896.16</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="7">
         <v>406651.25</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="7">
         <v>2014</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>41489</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="7">
         <v>329110324</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <v>41519</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="7">
         <v>9913</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="7">
         <v>47.45</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="7">
         <v>31.79</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="7">
         <v>470371.85</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="7">
         <v>315134.27</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="7">
         <v>155237.57999999999</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="7">
         <v>2013</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>40821</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <v>681298100</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <v>40867</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="7">
         <v>103</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="7">
         <v>421.89</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="7">
         <v>364.69</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="7">
         <v>43454.67</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="7">
         <v>37563.07</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="7">
         <v>5891.6</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="7">
         <v>2011</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>42689</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <v>596628272</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <v>42734</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="7">
         <v>4419</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="7">
         <v>97.44</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="7">
         <v>674251.02</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="7">
         <v>430587.36</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="7">
         <v>243663.66</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="7">
         <v>2016</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>42097</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="7">
         <v>901712167</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <v>42111</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="7">
         <v>5523</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="7">
         <v>651.21</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="7">
         <v>524.96</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="7">
         <v>3596632.83</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="7">
         <v>2899354.08</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="7">
         <v>697278.75</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="7">
         <v>2015</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>41355</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="7">
         <v>693473613</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="8">
         <v>41385</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="7">
         <v>3107</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="7">
         <v>47.45</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="7">
         <v>31.79</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="7">
         <v>147427.15</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="7">
         <v>98771.53</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="7">
         <v>48655.62</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="7">
         <v>2013</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>40392</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="7">
         <v>489148938</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <v>40422</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="7">
         <v>8896</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="7">
         <v>421.89</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="7">
         <v>364.69</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="7">
         <v>3753133.44</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="7">
         <v>3244282.24</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="7">
         <v>508851.20000000001</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="7">
         <v>2010</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>40913</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="7">
         <v>876286971</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="8">
         <v>40954</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="7">
         <v>1643</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="7">
         <v>668.27</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="7">
         <v>502.54</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="7">
         <v>1097967.6100000001</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="7">
         <v>825673.22</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="7">
         <v>272294.39</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="7">
         <v>2012</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>42242</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="7">
         <v>262749040</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="8">
         <v>42246</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="7">
         <v>2135</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="7">
         <v>81.73</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="7">
         <v>56.67</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="7">
         <v>174493.55</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="7">
         <v>120990.45</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="7">
         <v>53503.1</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="7">
         <v>2015</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>42713</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="7">
         <v>726708972</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <v>42761</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="7">
         <v>8189</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="7">
         <v>421.89</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="7">
         <v>364.69</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="7">
         <v>3454857.21</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="7">
         <v>2986446.41</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="7">
         <v>468410.8</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="7">
         <v>2016</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="8">
         <v>41046</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="7">
         <v>366653096</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="8">
         <v>41060</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="7">
         <v>9654</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="7">
         <v>154.06</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="7">
         <v>90.93</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="7">
         <v>1487295.24</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="7">
         <v>877838.22</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="7">
         <v>609457.02</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="7">
         <v>2012</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="8">
         <v>40499</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="7">
         <v>951380240</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="8">
         <v>40532</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="7">
         <v>3410</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="7">
         <v>154.06</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="7">
         <v>90.93</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="7">
         <v>525344.6</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="7">
         <v>310071.3</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="7">
         <v>215273.3</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="7">
         <v>2010</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>41956</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="7">
         <v>270001733</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <v>42005</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="7">
         <v>8368</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="7">
         <v>437.2</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="7">
         <v>263.33</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="7">
         <v>3658489.6</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="7">
         <v>2203545.44</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="7">
         <v>1454944.16</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="7">
         <v>2014</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="8">
         <v>42537</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="7">
         <v>681941401</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="8">
         <v>42579</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="7">
         <v>470</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="7">
         <v>47.45</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="7">
         <v>31.79</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="7">
         <v>22301.5</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="7">
         <v>14941.3</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="7">
         <v>7360.2</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="7">
         <v>2016</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <v>42521</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="7">
         <v>566935575</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="8">
         <v>42528</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="7">
         <v>7690</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="7">
         <v>9.33</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="7">
         <v>6.92</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="7">
         <v>71747.7</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="7">
         <v>53214.8</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="7">
         <v>18532.900000000001</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="7">
         <v>2016</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="8">
         <v>41188</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="7">
         <v>175033080</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="8">
         <v>41218</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="7">
         <v>5033</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="7">
         <v>97.44</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="7">
         <v>767935.14</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="7">
         <v>490415.52</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="7">
         <v>277519.62</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="7">
         <v>2012</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <v>40978</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="7">
         <v>276595246</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="8">
         <v>40983</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="7">
         <v>9535</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="7">
         <v>651.21</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="7">
         <v>524.96</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="7">
         <v>6209287.3499999996</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="7">
         <v>5005493.5999999996</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="7">
         <v>1203793.75</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="7">
         <v>2012</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="8">
         <v>40569</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="7">
         <v>812295901</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="8">
         <v>40587</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="7">
         <v>5263</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="7">
         <v>651.21</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="7">
         <v>524.96</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="7">
         <v>3427318.23</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="7">
         <v>2762864.48</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="7">
         <v>664453.75</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="7">
         <v>2011</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
         <v>41792</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="7">
         <v>443121373</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="8">
         <v>41809</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="7">
         <v>8316</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="7">
         <v>154.06</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="7">
         <v>90.93</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="7">
         <v>1281162.96</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="7">
         <v>756173.88</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="7">
         <v>524989.07999999996</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="7">
         <v>2014</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="8">
         <v>42721</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="7">
         <v>600370490</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="8">
         <v>42760</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="7">
         <v>1824</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="7">
         <v>81.73</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="7">
         <v>56.67</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="7">
         <v>149075.51999999999</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="7">
         <v>103366.08</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="7">
         <v>45709.440000000002</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="7">
         <v>2016</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
         <v>41817</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="7">
         <v>535654580</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="8">
         <v>41849</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="7">
         <v>949</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="7">
         <v>651.21</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="7">
         <v>524.96</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="7">
         <v>617998.29</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="7">
         <v>498187.04</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="7">
         <v>119811.25</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="7">
         <v>2014</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="8">
         <v>42080</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="7">
         <v>470897471</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="8">
         <v>42116</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="7">
         <v>7881</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="7">
         <v>437.2</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="7">
         <v>263.33</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="7">
         <v>3445573.2</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="7">
         <v>2075303.73</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="7">
         <v>1370269.47</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="7">
         <v>2015</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
         <v>41367</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="7">
         <v>248335492</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="8">
         <v>41368</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="7">
         <v>6846</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="7">
         <v>47.45</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="7">
         <v>31.79</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="7">
         <v>324842.7</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="7">
         <v>217634.34</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="7">
         <v>107208.36</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="7">
         <v>2013</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="8">
         <v>42071</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="7">
         <v>680517470</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="8">
         <v>42088</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="7">
         <v>9097</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="7">
         <v>109.28</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="7">
         <v>994120.16</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="7">
         <v>326036.47999999998</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="7">
         <v>668083.68000000005</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="7">
         <v>2015</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="8">
         <v>41446</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="7">
         <v>400304734</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="8">
         <v>41484</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="7">
         <v>7921</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="7">
         <v>81.73</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="7">
         <v>56.67</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="7">
         <v>647383.32999999996</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="7">
         <v>448883.07</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="7">
         <v>198500.26</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="7">
         <v>2013</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="8">
         <v>41280</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="7">
         <v>810871112</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="8">
         <v>41282</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="7">
         <v>3636</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="7">
         <v>651.21</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="7">
         <v>524.96</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="7">
         <v>2367799.56</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="7">
         <v>1908754.56</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="7">
         <v>459045</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="7">
         <v>2013</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="8">
         <v>40985</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="7">
         <v>235702931</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="8">
         <v>41002</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="7">
         <v>8590</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="7">
         <v>205.7</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="7">
         <v>117.11</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="7">
         <v>1766963</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="7">
         <v>1005974.9</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="7">
         <v>760988.1</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="7">
         <v>2012</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="8">
         <v>41747</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="7">
         <v>668599021</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="8">
         <v>41771</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="7">
         <v>2163</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="7">
         <v>651.21</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="7">
         <v>524.96</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="7">
         <v>1408567.23</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="7">
         <v>1135488.48</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="7">
         <v>273078.75</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="7">
         <v>2014</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="8">
         <v>42372</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="7">
         <v>123670709</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="8">
         <v>42401</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="7">
         <v>5766</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="7">
         <v>255.28</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="7">
         <v>159.41999999999999</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="7">
         <v>1471944.48</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="7">
         <v>919215.72</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="7">
         <v>552728.76</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="7">
         <v>2016</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="8">
         <v>40675</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="7">
         <v>285341823</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="8">
         <v>40702</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="7">
         <v>7841</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="7">
         <v>651.21</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="7">
         <v>524.96</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="7">
         <v>5106137.6100000003</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="7">
         <v>4116211.36</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="7">
         <v>989926.25</v>
       </c>
-      <c r="P71">
+      <c r="P71" s="7">
         <v>2011</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="8">
         <v>40388</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="7">
         <v>658348691</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="8">
         <v>40412</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="7">
         <v>8862</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="7">
         <v>9.33</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="7">
         <v>6.92</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="7">
         <v>82682.460000000006</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="7">
         <v>61325.04</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="7">
         <v>21357.42</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="7">
         <v>2010</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="8">
         <v>41488</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="7">
         <v>817740142</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="8">
         <v>41505</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="7">
         <v>6335</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="7">
         <v>255.28</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="7">
         <v>159.41999999999999</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="7">
         <v>1617198.8</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="7">
         <v>1009925.7</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="7">
         <v>607273.1</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="7">
         <v>2013</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="8">
         <v>41570</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="7">
         <v>858877503</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="8">
         <v>41584</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="7">
         <v>9794</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="7">
         <v>47.45</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="7">
         <v>31.79</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="7">
         <v>464725.3</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="7">
         <v>311351.26</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="7">
         <v>153374.04</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="7">
         <v>2013</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="8">
         <v>42771</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="7">
         <v>947434604</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="8">
         <v>42785</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="7">
         <v>5808</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="7">
         <v>154.06</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="7">
         <v>90.93</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="7">
         <v>894780.48</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="7">
         <v>528121.43999999994</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="7">
         <v>366659.04</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="7">
         <v>2017</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="8">
         <v>42083</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="7">
         <v>869397771</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="8">
         <v>42111</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="7">
         <v>2975</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="7">
         <v>421.89</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="7">
         <v>364.69</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="7">
         <v>1255122.75</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="7">
         <v>1084952.75</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="7">
         <v>170170</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="7">
         <v>2015</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="8">
         <v>41035</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="7">
         <v>481065833</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="8">
         <v>41037</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="7">
         <v>6925</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="7">
         <v>81.73</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="7">
         <v>56.67</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="7">
         <v>565980.25</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="7">
         <v>392439.75</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="7">
         <v>173540.5</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="7">
         <v>2012</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="8">
         <v>41547</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="7">
         <v>159050118</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="8">
         <v>41548</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="7">
         <v>5319</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="7">
         <v>421.89</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="7">
         <v>364.69</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="7">
         <v>2244032.91</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="7">
         <v>1939786.11</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="7">
         <v>304246.8</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="7">
         <v>2013</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="8">
         <v>41779</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="7">
         <v>350274455</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="8">
         <v>41804</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="7">
         <v>2850</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="7">
         <v>651.21</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="7">
         <v>524.96</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="7">
         <v>1855948.5</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="7">
         <v>1496136</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="7">
         <v>359812.5</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="7">
         <v>2014</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="8">
         <v>40277</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="7">
         <v>221975171</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="8">
         <v>40315</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="7">
         <v>6241</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="7">
         <v>205.7</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="7">
         <v>117.11</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="7">
         <v>1283773.7</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="7">
         <v>730883.51</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="7">
         <v>552890.18999999994</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="7">
         <v>2010</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="8">
         <v>42895</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="7">
         <v>811701095</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="8">
         <v>42935</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="7">
         <v>9247</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="7">
         <v>651.21</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="7">
         <v>524.96</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="7">
         <v>6021738.8700000001</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="7">
         <v>4854305.12</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="7">
         <v>1167433.75</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="7">
         <v>2017</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="8">
         <v>42043</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="7">
         <v>977313554</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I82" s="8">
         <v>42092</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="7">
         <v>7653</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="7">
         <v>205.7</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="7">
         <v>117.11</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="7">
         <v>1574222.1</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="7">
         <v>896242.83</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="7">
         <v>677979.27</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="7">
         <v>2015</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="8">
         <v>40203</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="7">
         <v>546986377</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="8">
         <v>40219</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="7">
         <v>4279</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="7">
         <v>97.44</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="7">
         <v>652889.81999999995</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="7">
         <v>416945.76</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="7">
         <v>235944.06</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="7">
         <v>2010</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="8">
         <v>40244</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="7">
         <v>769205892</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="8">
         <v>40254</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="7">
         <v>3972</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="7">
         <v>9.33</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="7">
         <v>6.92</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="7">
         <v>37058.76</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="7">
         <v>27486.240000000002</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="7">
         <v>9572.52</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="7">
         <v>2010</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="8">
         <v>41277</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="7">
         <v>262770926</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="8">
         <v>41313</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="7">
         <v>8611</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="7">
         <v>109.28</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="7">
         <v>941010.08</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="7">
         <v>308618.23999999999</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="7">
         <v>632391.84</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="7">
         <v>2013</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="8">
         <v>42800</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="7">
         <v>866792809</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="8">
         <v>42812</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="7">
         <v>2109</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="7">
         <v>97.44</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="7">
         <v>321791.21999999997</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="7">
         <v>205500.96</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="7">
         <v>116290.26</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="7">
         <v>2017</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="8">
         <v>40552</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="7">
         <v>890695369</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="8">
         <v>40597</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="7">
         <v>5408</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="7">
         <v>47.45</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="7">
         <v>31.79</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="7">
         <v>256609.6</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="7">
         <v>171920.32</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="7">
         <v>84689.279999999999</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="7">
         <v>2011</v>
       </c>
-      <c r="Q87">
+      <c r="Q87" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="8">
         <v>41725</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="7">
         <v>964214932</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="8">
         <v>41729</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="7">
         <v>1480</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="7">
         <v>205.7</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="7">
         <v>117.11</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="7">
         <v>304436</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="7">
         <v>173322.8</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="7">
         <v>131113.20000000001</v>
       </c>
-      <c r="P88">
+      <c r="P88" s="7">
         <v>2014</v>
       </c>
-      <c r="Q88">
+      <c r="Q88" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="8">
         <v>41453</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="7">
         <v>887400329</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="8">
         <v>41503</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="7">
         <v>332</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="7">
         <v>97.44</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="7">
         <v>50656.56</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="7">
         <v>32350.080000000002</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="7">
         <v>18306.48</v>
       </c>
-      <c r="P89">
+      <c r="P89" s="7">
         <v>2013</v>
       </c>
-      <c r="Q89">
+      <c r="Q89" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="8">
         <v>40790</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="7">
         <v>980612885</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="8">
         <v>40790</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="7">
         <v>3999</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="7">
         <v>47.45</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="7">
         <v>31.79</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="7">
         <v>189752.55</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="7">
         <v>127128.21</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="7">
         <v>62624.34</v>
       </c>
-      <c r="P90">
+      <c r="P90" s="7">
         <v>2011</v>
       </c>
-      <c r="Q90">
+      <c r="Q90" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="8">
         <v>42565</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="7">
         <v>734526431</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="8">
         <v>42584</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="7">
         <v>1549</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="7">
         <v>109.28</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="7">
         <v>169274.72</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="7">
         <v>55516.160000000003</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="7">
         <v>113758.56</v>
       </c>
-      <c r="P91">
+      <c r="P91" s="7">
         <v>2016</v>
       </c>
-      <c r="Q91">
+      <c r="Q91" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="8">
         <v>41693</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="7">
         <v>160127294</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="8">
         <v>41721</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="7">
         <v>4079</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="7">
         <v>255.28</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="7">
         <v>159.41999999999999</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="7">
         <v>1041287.12</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="7">
         <v>650274.18000000005</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="7">
         <v>391012.94</v>
       </c>
-      <c r="P92">
+      <c r="P92" s="7">
         <v>2014</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="8">
         <v>40397</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="7">
         <v>238714301</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="8">
         <v>40434</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="7">
         <v>9721</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="7">
         <v>109.28</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="7">
         <v>1062310.8799999999</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="7">
         <v>348400.64000000001</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="7">
         <v>713910.24</v>
       </c>
-      <c r="P93">
+      <c r="P93" s="7">
         <v>2010</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="8">
         <v>41288</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="7">
         <v>671898782</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="8">
         <v>41311</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="7">
         <v>8635</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="7">
         <v>668.27</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="7">
         <v>502.54</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="7">
         <v>5770511.4500000002</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="7">
         <v>4339432.9000000004</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="7">
         <v>1431078.55</v>
       </c>
-      <c r="P94">
+      <c r="P94" s="7">
         <v>2013</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="8">
         <v>40451</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="7">
         <v>331604564</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="8">
         <v>40499</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="7">
         <v>8014</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="7">
         <v>81.73</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="7">
         <v>56.67</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="7">
         <v>654984.22</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="7">
         <v>454153.38</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="7">
         <v>200830.84</v>
       </c>
-      <c r="P95">
+      <c r="P95" s="7">
         <v>2010</v>
       </c>
-      <c r="Q95">
+      <c r="Q95" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="8">
         <v>42656</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="7">
         <v>410067975</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="8">
         <v>42694</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="7">
         <v>7081</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="7">
         <v>205.7</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="7">
         <v>117.11</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="7">
         <v>1456561.7</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="7">
         <v>829255.91</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="7">
         <v>627305.79</v>
       </c>
-      <c r="P96">
+      <c r="P96" s="7">
         <v>2016</v>
       </c>
-      <c r="Q96">
+      <c r="Q96" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="8">
         <v>40618</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="7">
         <v>369837844</v>
       </c>
-      <c r="I97" s="9">
+      <c r="I97" s="8">
         <v>40625</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="7">
         <v>2091</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="7">
         <v>152.58000000000001</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="7">
         <v>97.44</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="7">
         <v>319044.78000000003</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="7">
         <v>203747.04</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="7">
         <v>115297.74</v>
       </c>
-      <c r="P97">
+      <c r="P97" s="7">
         <v>2011</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="8">
         <v>41269</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="7">
         <v>193775498</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="8">
         <v>41305</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="7">
         <v>1331</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="7">
         <v>9.33</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="7">
         <v>6.92</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="7">
         <v>12418.23</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="7">
         <v>9210.52</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="7">
         <v>3207.71</v>
       </c>
-      <c r="P98">
+      <c r="P98" s="7">
         <v>2012</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="8">
         <v>42249</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="7">
         <v>835054767</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="8">
         <v>42286</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="7">
         <v>117</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="7">
         <v>109.28</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="7">
         <v>35.840000000000003</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="7">
         <v>12785.76</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="7">
         <v>4193.28</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="7">
         <v>8592.48</v>
       </c>
-      <c r="P99">
+      <c r="P99" s="7">
         <v>2015</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="8">
         <v>41589</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="7">
         <v>167161977</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="8">
         <v>41632</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="7">
         <v>5798</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="7">
         <v>668.27</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="7">
         <v>502.54</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="7">
         <v>3874629.46</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="7">
         <v>2913726.92</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="7">
         <v>960902.54</v>
       </c>
-      <c r="P100">
+      <c r="P100" s="7">
         <v>2013</v>
       </c>
-      <c r="Q100">
+      <c r="Q100" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="8">
         <v>41855</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="7">
         <v>633895957</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="8">
         <v>41873</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="7">
         <v>2755</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="7">
         <v>154.06</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="7">
         <v>90.93</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="7">
         <v>424435.3</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="7">
         <v>250512.15</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="7">
         <v>173923.15</v>
       </c>
-      <c r="P101">
+      <c r="P101" s="7">
         <v>2014</v>
       </c>
-      <c r="Q101">
+      <c r="Q101" s="7">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q101" xr:uid="{4EE4706D-E2FC-4B65-8361-9201532C5717}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D06EC44-7F0F-47B3-9E4E-F60DDF256C5E}">
-  <dimension ref="B4:G7"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G5" t="str">
-        <f>_xlfn.TEXTJOIN("@",TRUE,B5,C5,D5,E5,F5)</f>
+      <c r="G3" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("@",TRUE,B3,C3,D3,E3,F3)</f>
         <v>Middle East and North Africa@Libya@Cosmetics@Lauren Marshall@Offline</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="H3" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,B3:F3)</f>
+        <v>Middle East and North Africa|Libya|Cosmetics|Lauren Marshall|Offline</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G7" si="0">_xlfn.TEXTJOIN("@",TRUE,B6,C6,D6,E6,F6)</f>
+      <c r="G4" s="2" t="str">
+        <f t="shared" ref="G4:G5" si="0">_xlfn.TEXTJOIN("@",TRUE,B4,C4,D4,E4,F4)</f>
         <v>North America@Canada@Vegetables@Evan Vaughan@Online</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="H4" s="2" t="str">
+        <f t="shared" ref="H4:H5" si="1">_xlfn.TEXTJOIN("|",TRUE,B4:F4)</f>
+        <v>North America|Canada|Vegetables|Evan Vaughan|Online</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Middle East and North Africa@Libya@Baby Food@Sean Glover@Offline</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Middle East and North Africa|Libya|Baby Food|Sean Glover|Offline</v>
       </c>
     </row>
   </sheetData>
@@ -7502,54 +7672,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35B4832-BB59-44E4-A5DD-E9FDA5CA7ACF}">
   <dimension ref="B4:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="5">
         <v>189686800706</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>LEFT(B5,4)</f>
         <v>Gary</v>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="4" t="str">
         <f>RIGHT(C5,2)</f>
         <v>67</v>
       </c>
@@ -7558,21 +7729,21 @@
         <v>686800</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="5">
         <v>192185941302</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6:E9" si="0">LEFT(B6,4)</f>
         <v>Jame</v>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="4" t="str">
         <f t="shared" ref="F6:F9" si="1">RIGHT(C6,2)</f>
         <v>68</v>
       </c>
@@ -7581,21 +7752,21 @@
         <v>185941</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="5">
         <v>345246222341</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Rich</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -7604,21 +7775,21 @@
         <v>246222</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="5">
         <v>911161442649</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Robe</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -7627,21 +7798,21 @@
         <v>161442</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="5">
         <v>768645713555</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Roge</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -7658,343 +7829,505 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D4901-EA7E-48D1-B433-3DF9BBCFA978}">
-  <dimension ref="B2:D41"/>
+  <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="F2" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D3" s="12"/>
+      <c r="F3" s="2" t="str" cm="1">
+        <f t="array" ref="F3:F9">_xlfn.UNIQUE(B3:B41)</f>
+        <v>Middle East and North Africa</v>
+      </c>
+      <c r="G3" s="2" t="str" cm="1">
+        <f t="array" ref="G3:G32">_xlfn.UNIQUE(C3:C41)</f>
+        <v>Libya</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="D4" s="12"/>
+      <c r="F4" s="2" t="str">
+        <v>North America</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="D5" s="12"/>
+      <c r="F5" s="2" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="D6" s="12"/>
+      <c r="F6" s="2" t="str">
+        <v>Sub-Saharan Africa</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <v>Chad</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="D7" s="12"/>
+      <c r="F7" s="2" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <v>Armenia</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="D8" s="12"/>
+      <c r="F8" s="2" t="str">
+        <v>Central America and the Caribbean</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <v>Eritrea</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="D9" s="12"/>
+      <c r="F9" s="2" t="str">
+        <v>Australia and Oceania</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <v>Montenegro</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="D10" s="12"/>
+      <c r="G10" s="2" t="str">
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="D11" s="12"/>
+      <c r="G11" s="2" t="str">
+        <v>Fiji</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="D12" s="12"/>
+      <c r="G12" s="2" t="str">
+        <v>Togo</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="D13" s="12"/>
+      <c r="G13" s="2" t="str">
+        <v>Greece</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="D14" s="12"/>
+      <c r="G14" s="2" t="str">
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="D15" s="12"/>
+      <c r="G15" s="2" t="str">
+        <v>Maldives</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="D16" s="12"/>
+      <c r="G16" s="2" t="str">
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="D17" s="12"/>
+      <c r="G17" s="2" t="str">
+        <v>Greenland</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="D18" s="12"/>
+      <c r="G18" s="2" t="str">
+        <v>Cape Verde</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="D19" s="12"/>
+      <c r="G19" s="2" t="str">
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="D20" s="12"/>
+      <c r="G20" s="2" t="str">
+        <v>Federated States of Micronesia</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="D21" s="12"/>
+      <c r="G21" s="2" t="str">
+        <v>Bulgaria</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="D22" s="12"/>
+      <c r="G22" s="2" t="str">
+        <v>Algeria</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="D23" s="12"/>
+      <c r="G23" s="2" t="str">
+        <v>Mongolia</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="D24" s="12"/>
+      <c r="G24" s="2" t="str">
+        <v>Grenada</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="D25" s="12"/>
+      <c r="G25" s="2" t="str">
+        <v xml:space="preserve">Mauritius </v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="12" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="D26" s="12"/>
+      <c r="G26" s="2" t="str">
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="D27" s="12"/>
+      <c r="G27" s="2" t="str">
+        <v>Honduras</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="D28" s="12"/>
+      <c r="G28" s="2" t="str">
+        <v>Benin</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="D29" s="12"/>
+      <c r="G29" s="2" t="str">
+        <v>Equatorial Guinea</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="12" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="D30" s="12"/>
+      <c r="G30" s="2" t="str">
+        <v>Swaziland</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="D31" s="12"/>
+      <c r="G31" s="2" t="str">
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="12" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="D32" s="12"/>
+      <c r="G32" s="2" t="str">
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="12" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="12" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="12" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="12" t="s">
         <v>189</v>
       </c>
+      <c r="D41" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8002,40 +8335,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CA28B6-5164-4F4B-A676-B63008C3A5B0}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>310</v>
       </c>
@@ -8059,7 +8394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>311</v>
       </c>
@@ -8083,7 +8418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
@@ -8107,7 +8442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>111</v>
       </c>
@@ -8131,7 +8466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>115</v>
       </c>
@@ -8155,7 +8490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>120</v>
       </c>
@@ -8179,7 +8514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>115</v>
       </c>
@@ -8203,7 +8538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>120</v>
       </c>
@@ -8227,7 +8562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>128</v>
       </c>
@@ -8251,7 +8586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>131</v>
       </c>
@@ -8275,7 +8610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>115</v>
       </c>
@@ -8299,7 +8634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>120</v>
       </c>
@@ -8323,7 +8658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>120</v>
       </c>
@@ -8347,7 +8682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>115</v>
       </c>
@@ -8371,7 +8706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>111</v>
       </c>
@@ -8395,7 +8730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>120</v>
       </c>
@@ -8419,7 +8754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
@@ -8443,7 +8778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>103</v>
       </c>
@@ -8467,7 +8802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>115</v>
       </c>
@@ -8491,7 +8826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>115</v>
       </c>
@@ -8515,7 +8850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>131</v>
       </c>
@@ -8539,7 +8874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>120</v>
       </c>
@@ -8563,7 +8898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>97</v>
       </c>
@@ -8587,7 +8922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>111</v>
       </c>
@@ -8611,7 +8946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>128</v>
       </c>
@@ -8635,7 +8970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>128</v>
       </c>
@@ -8659,7 +8994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>115</v>
       </c>
@@ -8683,7 +9018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>103</v>
       </c>
@@ -8707,7 +9042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>115</v>
       </c>
@@ -8731,7 +9066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>115</v>
       </c>
@@ -8755,7 +9090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>97</v>
       </c>
@@ -8779,7 +9114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>128</v>
       </c>
@@ -8803,7 +9138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
@@ -8827,7 +9162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>120</v>
       </c>
@@ -8851,7 +9186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>128</v>
       </c>
@@ -8875,7 +9210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>115</v>
       </c>
@@ -8899,7 +9234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>115</v>
       </c>
@@ -8923,7 +9258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>128</v>
       </c>
@@ -8947,7 +9282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>120</v>
       </c>
